--- a/help_others/qianqinhao/二步处理/cleared_dropna月平均.xlsx
+++ b/help_others/qianqinhao/二步处理/cleared_dropna月平均.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +434,6361 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>月平均气温</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.88166666666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.89107142857143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.07166666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.00483870967742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23.68166666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23.69838709677419</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.38387096774193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.83387096774193</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17.74833333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.64354838709677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.03064516129032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.56551724137931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.78548387096774</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.32166666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26.55806451612903</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23.585</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24.30483870967742</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22.96612903225808</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19.60967741935484</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.405</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.74032258064516</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14.20806451612903</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16.0375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19.18225806451613</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>23.09166666666667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>23.1774193548387</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="n">
+        <v>23.575</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="n">
+        <v>24.06612903225806</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="n">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20.38666666666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.22258064516129</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.68833333333334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13.65806451612903</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14.54677419354839</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16.69107142857143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>18.19516129032258</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>23.53333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>24.49193548387096</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>22.95666666666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>23.00645161290323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>22.73225806451613</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22.30166666666667</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19.21935483870968</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16.95166666666667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.12258064516129</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11.99032258064516</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16.80357142857143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19.80967741935484</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>21.85666666666667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25.49838709677419</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" t="n">
+        <v>22.48166666666667</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="n">
+        <v>23.20161290322581</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="n">
+        <v>22.50967741935483</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.50833333333333</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19.20483870967741</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14.335</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>12</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11.77741935483871</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10.99677419354839</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>16.03965517241379</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.33064516129032</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>23.40666666666666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22.20806451612903</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" t="n">
+        <v>23.06666666666667</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>23.35161290322581</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>8</v>
+      </c>
+      <c r="B69" t="n">
+        <v>23.17258064516128</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="n">
+        <v>18.71612903225807</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.60833333333334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13.73870967741936</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="n">
+        <v>14.20322580645161</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>14.18392857142857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="n">
+        <v>19.35806451612903</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>23.82741935483872</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" t="n">
+        <v>21.91500000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="n">
+        <v>23.38387096774193</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>8</v>
+      </c>
+      <c r="B81" t="n">
+        <v>23.26290322580645</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.25833333333333</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10</v>
+      </c>
+      <c r="B83" t="n">
+        <v>18.02096774193548</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11</v>
+      </c>
+      <c r="B84" t="n">
+        <v>16.98666666666667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>12</v>
+      </c>
+      <c r="B85" t="n">
+        <v>14.50483870967742</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13.41129032258064</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12.94464285714286</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20.43870967741936</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4</v>
+      </c>
+      <c r="B89" t="n">
+        <v>23.65833333333334</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B90" t="n">
+        <v>25.33870967741936</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>6</v>
+      </c>
+      <c r="B91" t="n">
+        <v>23.98166666666667</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7</v>
+      </c>
+      <c r="B92" t="n">
+        <v>23.21774193548387</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>8</v>
+      </c>
+      <c r="B93" t="n">
+        <v>22.13548387096774</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>9</v>
+      </c>
+      <c r="B94" t="n">
+        <v>21.985</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10</v>
+      </c>
+      <c r="B95" t="n">
+        <v>18.81935483870968</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.90833333333333</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>12</v>
+      </c>
+      <c r="B97" t="n">
+        <v>12.93387096774194</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12.24677419354839</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.46428571428571</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="n">
+        <v>17.08064516129032</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" t="n">
+        <v>22.45166666666666</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" t="n">
+        <v>22.99354838709678</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6</v>
+      </c>
+      <c r="B103" t="n">
+        <v>24.22333333333334</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23.65161290322581</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>8</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23.56451612903225</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>9</v>
+      </c>
+      <c r="B106" t="n">
+        <v>21.33666666666667</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10</v>
+      </c>
+      <c r="B107" t="n">
+        <v>18.93709677419355</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>11</v>
+      </c>
+      <c r="B108" t="n">
+        <v>16.82833333333333</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>12</v>
+      </c>
+      <c r="B109" t="n">
+        <v>14.77741935483871</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13.52903225806452</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15.00517241379311</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>19.59516129032258</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" t="n">
+        <v>22.64333333333333</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" t="n">
+        <v>23.98387096774193</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6</v>
+      </c>
+      <c r="B115" t="n">
+        <v>24.10666666666667</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B116" t="n">
+        <v>22.50967741935484</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>8</v>
+      </c>
+      <c r="B117" t="n">
+        <v>24.13870967741935</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>9</v>
+      </c>
+      <c r="B118" t="n">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" t="n">
+        <v>19.71774193548388</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>11</v>
+      </c>
+      <c r="B120" t="n">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>12</v>
+      </c>
+      <c r="B121" t="n">
+        <v>13.19516129032258</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>13.9241935483871</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.46785714285714</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="n">
+        <v>18.94354838709678</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" t="n">
+        <v>22.40833333333333</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" t="n">
+        <v>23.45161290322581</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>8</v>
+      </c>
+      <c r="B129" t="n">
+        <v>22.99999999999999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>9</v>
+      </c>
+      <c r="B130" t="n">
+        <v>21.96333333333333</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.59354838709677</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.365</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>12</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" t="n">
+        <v>14.68214285714286</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" t="n">
+        <v>17.2483870967742</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22.15833333333333</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5</v>
+      </c>
+      <c r="B138" t="n">
+        <v>23.82580645161291</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6</v>
+      </c>
+      <c r="B139" t="n">
+        <v>22.77333333333333</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>7</v>
+      </c>
+      <c r="B140" t="n">
+        <v>24.21774193548387</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>8</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22.80322580645162</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>9</v>
+      </c>
+      <c r="B142" t="n">
+        <v>22.32833333333333</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B143" t="n">
+        <v>19.39193548387097</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>11</v>
+      </c>
+      <c r="B144" t="n">
+        <v>16.08333333333334</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>12</v>
+      </c>
+      <c r="B145" t="n">
+        <v>13.46935483870968</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>10.83870967741936</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2</v>
+      </c>
+      <c r="B147" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22.39833333333333</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>5</v>
+      </c>
+      <c r="B150" t="n">
+        <v>25.58870967741936</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>6</v>
+      </c>
+      <c r="B151" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>7</v>
+      </c>
+      <c r="B152" t="n">
+        <v>23.74838709677419</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>8</v>
+      </c>
+      <c r="B153" t="n">
+        <v>22.91774193548387</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>9</v>
+      </c>
+      <c r="B154" t="n">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10</v>
+      </c>
+      <c r="B155" t="n">
+        <v>18.60645161290323</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>11</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16.37666666666667</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>12</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.84677419354839</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>13.47903225806452</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" t="n">
+        <v>14.87241379310345</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" t="n">
+        <v>18.58548387096774</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4</v>
+      </c>
+      <c r="B161" t="n">
+        <v>23.28275862068965</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5</v>
+      </c>
+      <c r="B162" t="n">
+        <v>22.43870967741936</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>6</v>
+      </c>
+      <c r="B163" t="n">
+        <v>23.17833333333333</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>7</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.63709677419355</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>8</v>
+      </c>
+      <c r="B165" t="n">
+        <v>23.36935483870968</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>9</v>
+      </c>
+      <c r="B166" t="n">
+        <v>22.64166666666667</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>10</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20.72741935483871</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>11</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15.68166666666666</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>12</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.59354838709678</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.95967741935484</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2</v>
+      </c>
+      <c r="B171" t="n">
+        <v>14.94464285714286</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" t="n">
+        <v>17.66935483870968</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.90666666666666</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5</v>
+      </c>
+      <c r="B174" t="n">
+        <v>23.53225806451613</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6</v>
+      </c>
+      <c r="B175" t="n">
+        <v>23.08666666666667</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>7</v>
+      </c>
+      <c r="B176" t="n">
+        <v>23.49838709677419</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>8</v>
+      </c>
+      <c r="B177" t="n">
+        <v>21.74354838709678</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>9</v>
+      </c>
+      <c r="B178" t="n">
+        <v>21.95333333333333</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>10</v>
+      </c>
+      <c r="B179" t="n">
+        <v>19.2758064516129</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" t="n">
+        <v>15.89833333333334</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>12</v>
+      </c>
+      <c r="B181" t="n">
+        <v>13.77903225806451</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="n">
+        <v>14.03387096774194</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15.74821428571429</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>3</v>
+      </c>
+      <c r="B184" t="n">
+        <v>19.3241935483871</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" t="n">
+        <v>23.555</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>5</v>
+      </c>
+      <c r="B186" t="n">
+        <v>22.62903225806452</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6</v>
+      </c>
+      <c r="B187" t="n">
+        <v>22.09333333333333</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>7</v>
+      </c>
+      <c r="B188" t="n">
+        <v>23.26612903225806</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>8</v>
+      </c>
+      <c r="B189" t="n">
+        <v>22.53709677419354</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>9</v>
+      </c>
+      <c r="B190" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>10</v>
+      </c>
+      <c r="B191" t="n">
+        <v>18.7241935483871</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>11</v>
+      </c>
+      <c r="B192" t="n">
+        <v>17.10666666666667</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>12</v>
+      </c>
+      <c r="B193" t="n">
+        <v>14.4741935483871</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.2758064516129</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2</v>
+      </c>
+      <c r="B195" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>3</v>
+      </c>
+      <c r="B196" t="n">
+        <v>16.99032258064516</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4</v>
+      </c>
+      <c r="B197" t="n">
+        <v>20.09666666666666</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5</v>
+      </c>
+      <c r="B198" t="n">
+        <v>24.22741935483871</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="n">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>7</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23.47258064516129</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>8</v>
+      </c>
+      <c r="B201" t="n">
+        <v>23.81612903225806</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>9</v>
+      </c>
+      <c r="B202" t="n">
+        <v>21.17166666666667</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>10</v>
+      </c>
+      <c r="B203" t="n">
+        <v>18.77741935483871</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>11</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15.35833333333333</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>12</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.64838709677419</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.04838709677419</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13.13793103448276</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3</v>
+      </c>
+      <c r="B208" t="n">
+        <v>17.88870967741936</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>4</v>
+      </c>
+      <c r="B209" t="n">
+        <v>19.44833333333333</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>5</v>
+      </c>
+      <c r="B210" t="n">
+        <v>23.1516129032258</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="n">
+        <v>22.835</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>7</v>
+      </c>
+      <c r="B212" t="n">
+        <v>22.99516129032258</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>8</v>
+      </c>
+      <c r="B213" t="n">
+        <v>22.87580645161291</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>9</v>
+      </c>
+      <c r="B214" t="n">
+        <v>21.81333333333333</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>10</v>
+      </c>
+      <c r="B215" t="n">
+        <v>19.12580645161291</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>11</v>
+      </c>
+      <c r="B216" t="n">
+        <v>17.53333333333333</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>12</v>
+      </c>
+      <c r="B217" t="n">
+        <v>14.64516129032258</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1</v>
+      </c>
+      <c r="B218" t="n">
+        <v>13.91129032258065</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2</v>
+      </c>
+      <c r="B219" t="n">
+        <v>15.18928571428571</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>3</v>
+      </c>
+      <c r="B220" t="n">
+        <v>19.13387096774193</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4</v>
+      </c>
+      <c r="B221" t="n">
+        <v>21.96833333333333</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>5</v>
+      </c>
+      <c r="B222" t="n">
+        <v>25.87741935483871</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>6</v>
+      </c>
+      <c r="B223" t="n">
+        <v>23.40833333333334</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7</v>
+      </c>
+      <c r="B224" t="n">
+        <v>23.56774193548387</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>8</v>
+      </c>
+      <c r="B225" t="n">
+        <v>22.26935483870967</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>9</v>
+      </c>
+      <c r="B226" t="n">
+        <v>22.11333333333334</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>10</v>
+      </c>
+      <c r="B227" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>11</v>
+      </c>
+      <c r="B228" t="n">
+        <v>15.86333333333333</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>12</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12.99516129032258</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" t="n">
+        <v>12.97741935483871</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2</v>
+      </c>
+      <c r="B231" t="n">
+        <v>15.50714285714286</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>3</v>
+      </c>
+      <c r="B232" t="n">
+        <v>19.37419354838709</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>4</v>
+      </c>
+      <c r="B233" t="n">
+        <v>21.60344827586207</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>5</v>
+      </c>
+      <c r="B234" t="n">
+        <v>22.83870967741935</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>6</v>
+      </c>
+      <c r="B235" t="n">
+        <v>22.96833333333334</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>7</v>
+      </c>
+      <c r="B236" t="n">
+        <v>22.42580645161291</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>8</v>
+      </c>
+      <c r="B237" t="n">
+        <v>23.72096774193549</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>9</v>
+      </c>
+      <c r="B238" t="n">
+        <v>22.44166666666666</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>10</v>
+      </c>
+      <c r="B239" t="n">
+        <v>18.69677419354839</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>11</v>
+      </c>
+      <c r="B240" t="n">
+        <v>15.58666666666667</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>12</v>
+      </c>
+      <c r="B241" t="n">
+        <v>13.68225806451613</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11.61290322580645</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" t="n">
+        <v>13.19107142857142</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>3</v>
+      </c>
+      <c r="B244" t="n">
+        <v>18.09516129032258</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4</v>
+      </c>
+      <c r="B245" t="n">
+        <v>21.67833333333333</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>5</v>
+      </c>
+      <c r="B246" t="n">
+        <v>22.19032258064515</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>6</v>
+      </c>
+      <c r="B247" t="n">
+        <v>23.09666666666667</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>7</v>
+      </c>
+      <c r="B248" t="n">
+        <v>22.60322580645161</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="n">
+        <v>21.76935483870967</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>9</v>
+      </c>
+      <c r="B250" t="n">
+        <v>21.92833333333333</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" t="n">
+        <v>18.30806451612903</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>11</v>
+      </c>
+      <c r="B252" t="n">
+        <v>15.24666666666667</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>12</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12.36774193548387</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" t="n">
+        <v>12.73709677419355</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13.4948275862069</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>3</v>
+      </c>
+      <c r="B256" t="n">
+        <v>17.36935483870968</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>4</v>
+      </c>
+      <c r="B257" t="n">
+        <v>19.51</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>5</v>
+      </c>
+      <c r="B258" t="n">
+        <v>23.78548387096774</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>6</v>
+      </c>
+      <c r="B259" t="n">
+        <v>23.18000000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>7</v>
+      </c>
+      <c r="B260" t="n">
+        <v>23.14677419354839</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>8</v>
+      </c>
+      <c r="B261" t="n">
+        <v>22.97741935483871</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>9</v>
+      </c>
+      <c r="B262" t="n">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>10</v>
+      </c>
+      <c r="B263" t="n">
+        <v>20.70322580645162</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>11</v>
+      </c>
+      <c r="B264" t="n">
+        <v>15.44666666666667</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>12</v>
+      </c>
+      <c r="B265" t="n">
+        <v>13.20322580645161</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" t="n">
+        <v>12.87096774193549</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2</v>
+      </c>
+      <c r="B267" t="n">
+        <v>15.87321428571428</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3</v>
+      </c>
+      <c r="B268" t="n">
+        <v>18.60322580645161</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4</v>
+      </c>
+      <c r="B269" t="n">
+        <v>22.30166666666667</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>5</v>
+      </c>
+      <c r="B270" t="n">
+        <v>23.20483870967742</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>6</v>
+      </c>
+      <c r="B271" t="n">
+        <v>23.28166666666667</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>7</v>
+      </c>
+      <c r="B272" t="n">
+        <v>23.14677419354839</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>8</v>
+      </c>
+      <c r="B273" t="n">
+        <v>22.79354838709678</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>9</v>
+      </c>
+      <c r="B274" t="n">
+        <v>22.13833333333334</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>10</v>
+      </c>
+      <c r="B275" t="n">
+        <v>19.39354838709677</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>11</v>
+      </c>
+      <c r="B276" t="n">
+        <v>14.78833333333333</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>12</v>
+      </c>
+      <c r="B277" t="n">
+        <v>12.49193548387097</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1</v>
+      </c>
+      <c r="B278" t="n">
+        <v>12.37096774193548</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2</v>
+      </c>
+      <c r="B279" t="n">
+        <v>13.60714285714286</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3</v>
+      </c>
+      <c r="B280" t="n">
+        <v>16.72258064516129</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>4</v>
+      </c>
+      <c r="B281" t="n">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>5</v>
+      </c>
+      <c r="B282" t="n">
+        <v>22.99677419354839</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>6</v>
+      </c>
+      <c r="B283" t="n">
+        <v>22.58666666666666</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>7</v>
+      </c>
+      <c r="B284" t="n">
+        <v>22.86612903225807</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>8</v>
+      </c>
+      <c r="B285" t="n">
+        <v>21.66774193548387</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="n">
+        <v>22.23999999999999</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>10</v>
+      </c>
+      <c r="B287" t="n">
+        <v>20.2258064516129</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>11</v>
+      </c>
+      <c r="B288" t="n">
+        <v>17.355</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>12</v>
+      </c>
+      <c r="B289" t="n">
+        <v>13.57741935483871</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1</v>
+      </c>
+      <c r="B290" t="n">
+        <v>13.00967741935484</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2</v>
+      </c>
+      <c r="B291" t="n">
+        <v>15.16428571428571</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3</v>
+      </c>
+      <c r="B292" t="n">
+        <v>18.69516129032259</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>4</v>
+      </c>
+      <c r="B293" t="n">
+        <v>22.54666666666667</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>5</v>
+      </c>
+      <c r="B294" t="n">
+        <v>23.71612903225806</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>6</v>
+      </c>
+      <c r="B295" t="n">
+        <v>23.23666666666666</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>7</v>
+      </c>
+      <c r="B296" t="n">
+        <v>22.77258064516129</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>8</v>
+      </c>
+      <c r="B297" t="n">
+        <v>22.97741935483871</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="n">
+        <v>22.725</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>10</v>
+      </c>
+      <c r="B299" t="n">
+        <v>19.98225806451613</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>11</v>
+      </c>
+      <c r="B300" t="n">
+        <v>15.06833333333333</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>12</v>
+      </c>
+      <c r="B301" t="n">
+        <v>10.32903225806452</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1</v>
+      </c>
+      <c r="B302" t="n">
+        <v>11.51935483870968</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2</v>
+      </c>
+      <c r="B303" t="n">
+        <v>14.51724137931035</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" t="n">
+        <v>16.9241935483871</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>4</v>
+      </c>
+      <c r="B305" t="n">
+        <v>21.065</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" t="n">
+        <v>22.25483870967742</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>6</v>
+      </c>
+      <c r="B307" t="n">
+        <v>22.21833333333333</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>7</v>
+      </c>
+      <c r="B308" t="n">
+        <v>23.01935483870968</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>8</v>
+      </c>
+      <c r="B309" t="n">
+        <v>22.8016129032258</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9</v>
+      </c>
+      <c r="B310" t="n">
+        <v>21.47333333333333</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>10</v>
+      </c>
+      <c r="B311" t="n">
+        <v>19.61612903225807</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>11</v>
+      </c>
+      <c r="B312" t="n">
+        <v>14.59666666666667</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>12</v>
+      </c>
+      <c r="B313" t="n">
+        <v>13.61451612903226</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1</v>
+      </c>
+      <c r="B314" t="n">
+        <v>12.87903225806451</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2</v>
+      </c>
+      <c r="B315" t="n">
+        <v>12.29821428571429</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3</v>
+      </c>
+      <c r="B316" t="n">
+        <v>17.5258064516129</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>4</v>
+      </c>
+      <c r="B317" t="n">
+        <v>20.56666666666667</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>5</v>
+      </c>
+      <c r="B318" t="n">
+        <v>23.37258064516129</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>6</v>
+      </c>
+      <c r="B319" t="n">
+        <v>24.025</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>7</v>
+      </c>
+      <c r="B320" t="n">
+        <v>23.05645161290323</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>8</v>
+      </c>
+      <c r="B321" t="n">
+        <v>22.99516129032259</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B322" t="n">
+        <v>21.295</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>10</v>
+      </c>
+      <c r="B323" t="n">
+        <v>18.73870967741936</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>11</v>
+      </c>
+      <c r="B324" t="n">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>12</v>
+      </c>
+      <c r="B325" t="n">
+        <v>12.56290322580645</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1</v>
+      </c>
+      <c r="B326" t="n">
+        <v>11.58225806451613</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2</v>
+      </c>
+      <c r="B327" t="n">
+        <v>13.90714285714286</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" t="n">
+        <v>18.19516129032258</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4</v>
+      </c>
+      <c r="B329" t="n">
+        <v>21.18333333333333</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5</v>
+      </c>
+      <c r="B330" t="n">
+        <v>21.8983870967742</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>6</v>
+      </c>
+      <c r="B331" t="n">
+        <v>22.76166666666667</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>7</v>
+      </c>
+      <c r="B332" t="n">
+        <v>23.14677419354839</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>8</v>
+      </c>
+      <c r="B333" t="n">
+        <v>23.52096774193549</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>9</v>
+      </c>
+      <c r="B334" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>10</v>
+      </c>
+      <c r="B335" t="n">
+        <v>19.32741935483871</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>11</v>
+      </c>
+      <c r="B336" t="n">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>12</v>
+      </c>
+      <c r="B337" t="n">
+        <v>13.96935483870968</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1</v>
+      </c>
+      <c r="B338" t="n">
+        <v>13.6741935483871</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2</v>
+      </c>
+      <c r="B339" t="n">
+        <v>15.42321428571428</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3</v>
+      </c>
+      <c r="B340" t="n">
+        <v>18.7241935483871</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>4</v>
+      </c>
+      <c r="B341" t="n">
+        <v>22.155</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>5</v>
+      </c>
+      <c r="B342" t="n">
+        <v>24.1241935483871</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>6</v>
+      </c>
+      <c r="B343" t="n">
+        <v>22.86166666666668</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>7</v>
+      </c>
+      <c r="B344" t="n">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>8</v>
+      </c>
+      <c r="B345" t="n">
+        <v>23.35967741935483</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>9</v>
+      </c>
+      <c r="B346" t="n">
+        <v>21.65499999999999</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>10</v>
+      </c>
+      <c r="B347" t="n">
+        <v>17.54193548387097</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>11</v>
+      </c>
+      <c r="B348" t="n">
+        <v>13.72333333333333</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>12</v>
+      </c>
+      <c r="B349" t="n">
+        <v>12.67903225806452</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1</v>
+      </c>
+      <c r="B350" t="n">
+        <v>12.86935483870968</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2</v>
+      </c>
+      <c r="B351" t="n">
+        <v>15.05172413793103</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3</v>
+      </c>
+      <c r="B352" t="n">
+        <v>19.13387096774193</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>4</v>
+      </c>
+      <c r="B353" t="n">
+        <v>22.76833333333333</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>5</v>
+      </c>
+      <c r="B354" t="n">
+        <v>23.11451612903225</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>6</v>
+      </c>
+      <c r="B355" t="n">
+        <v>23.49833333333333</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>7</v>
+      </c>
+      <c r="B356" t="n">
+        <v>23.53064516129032</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>8</v>
+      </c>
+      <c r="B357" t="n">
+        <v>22.97258064516129</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>9</v>
+      </c>
+      <c r="B358" t="n">
+        <v>21.65833333333333</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>10</v>
+      </c>
+      <c r="B359" t="n">
+        <v>19.63548387096774</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>11</v>
+      </c>
+      <c r="B360" t="n">
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>12</v>
+      </c>
+      <c r="B361" t="n">
+        <v>13.38387096774194</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1</v>
+      </c>
+      <c r="B362" t="n">
+        <v>12.79677419354839</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>2</v>
+      </c>
+      <c r="B363" t="n">
+        <v>15.35357142857143</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3</v>
+      </c>
+      <c r="B364" t="n">
+        <v>18.17741935483871</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>4</v>
+      </c>
+      <c r="B365" t="n">
+        <v>21.385</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>5</v>
+      </c>
+      <c r="B366" t="n">
+        <v>22.38225806451613</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>6</v>
+      </c>
+      <c r="B367" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>7</v>
+      </c>
+      <c r="B368" t="n">
+        <v>23.50806451612904</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>8</v>
+      </c>
+      <c r="B369" t="n">
+        <v>24.34677419354839</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>9</v>
+      </c>
+      <c r="B370" t="n">
+        <v>23.16666666666667</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>10</v>
+      </c>
+      <c r="B371" t="n">
+        <v>20.96612903225807</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>11</v>
+      </c>
+      <c r="B372" t="n">
+        <v>16.495</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>12</v>
+      </c>
+      <c r="B373" t="n">
+        <v>11.73225806451613</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1</v>
+      </c>
+      <c r="B374" t="n">
+        <v>12.74032258064516</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>2</v>
+      </c>
+      <c r="B375" t="n">
+        <v>13.92678571428572</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3</v>
+      </c>
+      <c r="B376" t="n">
+        <v>18.54516129032258</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>4</v>
+      </c>
+      <c r="B377" t="n">
+        <v>19.35333333333333</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>5</v>
+      </c>
+      <c r="B378" t="n">
+        <v>24.11935483870967</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>6</v>
+      </c>
+      <c r="B379" t="n">
+        <v>23.325</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>7</v>
+      </c>
+      <c r="B380" t="n">
+        <v>24.00483870967741</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>8</v>
+      </c>
+      <c r="B381" t="n">
+        <v>23.86129032258065</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>9</v>
+      </c>
+      <c r="B382" t="n">
+        <v>22.45833333333334</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>10</v>
+      </c>
+      <c r="B383" t="n">
+        <v>20.77258064516129</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>11</v>
+      </c>
+      <c r="B384" t="n">
+        <v>15.19833333333333</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>12</v>
+      </c>
+      <c r="B385" t="n">
+        <v>10.25322580645162</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1</v>
+      </c>
+      <c r="B386" t="n">
+        <v>10.78225806451613</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2</v>
+      </c>
+      <c r="B387" t="n">
+        <v>13.14821428571429</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3</v>
+      </c>
+      <c r="B388" t="n">
+        <v>15.3741935483871</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>4</v>
+      </c>
+      <c r="B389" t="n">
+        <v>20.68166666666666</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>5</v>
+      </c>
+      <c r="B390" t="n">
+        <v>24.47741935483871</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>6</v>
+      </c>
+      <c r="B391" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>7</v>
+      </c>
+      <c r="B392" t="n">
+        <v>24.16774193548387</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>8</v>
+      </c>
+      <c r="B393" t="n">
+        <v>22.8516129032258</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>9</v>
+      </c>
+      <c r="B394" t="n">
+        <v>22.40166666666667</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>10</v>
+      </c>
+      <c r="B395" t="n">
+        <v>20.51290322580645</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>11</v>
+      </c>
+      <c r="B396" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>12</v>
+      </c>
+      <c r="B397" t="n">
+        <v>11.25483870967742</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1</v>
+      </c>
+      <c r="B398" t="n">
+        <v>12.7483870967742</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2</v>
+      </c>
+      <c r="B399" t="n">
+        <v>15.38620689655172</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3</v>
+      </c>
+      <c r="B400" t="n">
+        <v>17.84516129032258</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>4</v>
+      </c>
+      <c r="B401" t="n">
+        <v>22.94333333333334</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>5</v>
+      </c>
+      <c r="B402" t="n">
+        <v>22.7258064516129</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>6</v>
+      </c>
+      <c r="B403" t="n">
+        <v>23.22</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>7</v>
+      </c>
+      <c r="B404" t="n">
+        <v>23.0741935483871</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>8</v>
+      </c>
+      <c r="B405" t="n">
+        <v>23.5016129032258</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>9</v>
+      </c>
+      <c r="B406" t="n">
+        <v>21.69666666666667</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>10</v>
+      </c>
+      <c r="B407" t="n">
+        <v>18.74516129032258</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>11</v>
+      </c>
+      <c r="B408" t="n">
+        <v>16.555</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>12</v>
+      </c>
+      <c r="B409" t="n">
+        <v>13.96774193548387</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1</v>
+      </c>
+      <c r="B410" t="n">
+        <v>13.06935483870968</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>2</v>
+      </c>
+      <c r="B411" t="n">
+        <v>14.49107142857143</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3</v>
+      </c>
+      <c r="B412" t="n">
+        <v>16.84032258064516</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>4</v>
+      </c>
+      <c r="B413" t="n">
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>5</v>
+      </c>
+      <c r="B414" t="n">
+        <v>23.29032258064516</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>6</v>
+      </c>
+      <c r="B415" t="n">
+        <v>23.275</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>7</v>
+      </c>
+      <c r="B416" t="n">
+        <v>22.67419354838709</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>8</v>
+      </c>
+      <c r="B417" t="n">
+        <v>23.60645161290322</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>9</v>
+      </c>
+      <c r="B418" t="n">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>10</v>
+      </c>
+      <c r="B419" t="n">
+        <v>19.4016129032258</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>11</v>
+      </c>
+      <c r="B420" t="n">
+        <v>15.50166666666667</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>12</v>
+      </c>
+      <c r="B421" t="n">
+        <v>12.7016129032258</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1</v>
+      </c>
+      <c r="B422" t="n">
+        <v>12.27741935483871</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>2</v>
+      </c>
+      <c r="B423" t="n">
+        <v>14.975</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3</v>
+      </c>
+      <c r="B424" t="n">
+        <v>16.99677419354838</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>4</v>
+      </c>
+      <c r="B425" t="n">
+        <v>20.81166666666667</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>5</v>
+      </c>
+      <c r="B426" t="n">
+        <v>22.78548387096774</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>6</v>
+      </c>
+      <c r="B427" t="n">
+        <v>24.08166666666666</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>7</v>
+      </c>
+      <c r="B428" t="n">
+        <v>22.31129032258064</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>8</v>
+      </c>
+      <c r="B429" t="n">
+        <v>22.99516129032257</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>9</v>
+      </c>
+      <c r="B430" t="n">
+        <v>21.11166666666667</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>10</v>
+      </c>
+      <c r="B431" t="n">
+        <v>17.88709677419355</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>11</v>
+      </c>
+      <c r="B432" t="n">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>12</v>
+      </c>
+      <c r="B433" t="n">
+        <v>13.48225806451613</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1</v>
+      </c>
+      <c r="B434" t="n">
+        <v>13.03870967741935</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>2</v>
+      </c>
+      <c r="B435" t="n">
+        <v>14.96607142857143</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3</v>
+      </c>
+      <c r="B436" t="n">
+        <v>18.28225806451613</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>4</v>
+      </c>
+      <c r="B437" t="n">
+        <v>21.31833333333333</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>5</v>
+      </c>
+      <c r="B438" t="n">
+        <v>25.04032258064516</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>6</v>
+      </c>
+      <c r="B439" t="n">
+        <v>24.035</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>7</v>
+      </c>
+      <c r="B440" t="n">
+        <v>23.39838709677419</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>8</v>
+      </c>
+      <c r="B441" t="n">
+        <v>22.92903225806452</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>9</v>
+      </c>
+      <c r="B442" t="n">
+        <v>21.67666666666667</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>10</v>
+      </c>
+      <c r="B443" t="n">
+        <v>20.59354838709677</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>11</v>
+      </c>
+      <c r="B444" t="n">
+        <v>17.29166666666666</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>12</v>
+      </c>
+      <c r="B445" t="n">
+        <v>10.8758064516129</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1</v>
+      </c>
+      <c r="B446" t="n">
+        <v>13.77903225806452</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>2</v>
+      </c>
+      <c r="B447" t="n">
+        <v>15.89137931034483</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>3</v>
+      </c>
+      <c r="B448" t="n">
+        <v>19.05967741935484</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4</v>
+      </c>
+      <c r="B449" t="n">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>5</v>
+      </c>
+      <c r="B450" t="n">
+        <v>23.81935483870968</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>6</v>
+      </c>
+      <c r="B451" t="n">
+        <v>24.30166666666667</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>7</v>
+      </c>
+      <c r="B452" t="n">
+        <v>23.30161290322581</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>8</v>
+      </c>
+      <c r="B453" t="n">
+        <v>23.01290322580645</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>9</v>
+      </c>
+      <c r="B454" t="n">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>10</v>
+      </c>
+      <c r="B455" t="n">
+        <v>19.31935483870967</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>11</v>
+      </c>
+      <c r="B456" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>12</v>
+      </c>
+      <c r="B457" t="n">
+        <v>13.38225806451613</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1</v>
+      </c>
+      <c r="B458" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2</v>
+      </c>
+      <c r="B459" t="n">
+        <v>14.48035714285714</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>3</v>
+      </c>
+      <c r="B460" t="n">
+        <v>17.40483870967742</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>4</v>
+      </c>
+      <c r="B461" t="n">
+        <v>21.44166666666667</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>5</v>
+      </c>
+      <c r="B462" t="n">
+        <v>22.79516129032258</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>6</v>
+      </c>
+      <c r="B463" t="n">
+        <v>23.76166666666666</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>7</v>
+      </c>
+      <c r="B464" t="n">
+        <v>22.92096774193548</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>8</v>
+      </c>
+      <c r="B465" t="n">
+        <v>23.21451612903226</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>9</v>
+      </c>
+      <c r="B466" t="n">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>10</v>
+      </c>
+      <c r="B467" t="n">
+        <v>19.5258064516129</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>11</v>
+      </c>
+      <c r="B468" t="n">
+        <v>16.20666666666667</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>12</v>
+      </c>
+      <c r="B469" t="n">
+        <v>12.35483870967742</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1</v>
+      </c>
+      <c r="B470" t="n">
+        <v>13.50483870967742</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2</v>
+      </c>
+      <c r="B471" t="n">
+        <v>14.59642857142857</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3</v>
+      </c>
+      <c r="B472" t="n">
+        <v>16.64193548387097</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>4</v>
+      </c>
+      <c r="B473" t="n">
+        <v>20.905</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>5</v>
+      </c>
+      <c r="B474" t="n">
+        <v>21.1258064516129</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>6</v>
+      </c>
+      <c r="B475" t="n">
+        <v>22.84333333333334</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>7</v>
+      </c>
+      <c r="B476" t="n">
+        <v>22.63064516129032</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>8</v>
+      </c>
+      <c r="B477" t="n">
+        <v>24.45000000000001</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>9</v>
+      </c>
+      <c r="B478" t="n">
+        <v>22.28000000000001</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>10</v>
+      </c>
+      <c r="B479" t="n">
+        <v>19.42903225806451</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>11</v>
+      </c>
+      <c r="B480" t="n">
+        <v>17.94</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>12</v>
+      </c>
+      <c r="B481" t="n">
+        <v>12.5483870967742</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1</v>
+      </c>
+      <c r="B482" t="n">
+        <v>13.72096774193549</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>2</v>
+      </c>
+      <c r="B483" t="n">
+        <v>14.88928571428572</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>3</v>
+      </c>
+      <c r="B484" t="n">
+        <v>19.56290322580644</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>4</v>
+      </c>
+      <c r="B485" t="n">
+        <v>21.505</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>5</v>
+      </c>
+      <c r="B486" t="n">
+        <v>22.80483870967742</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>6</v>
+      </c>
+      <c r="B487" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>7</v>
+      </c>
+      <c r="B488" t="n">
+        <v>23.4758064516129</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>8</v>
+      </c>
+      <c r="B489" t="n">
+        <v>23.04516129032258</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>9</v>
+      </c>
+      <c r="B490" t="n">
+        <v>21.72166666666667</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>10</v>
+      </c>
+      <c r="B491" t="n">
+        <v>19.74516129032258</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>11</v>
+      </c>
+      <c r="B492" t="n">
+        <v>15.46833333333333</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>12</v>
+      </c>
+      <c r="B493" t="n">
+        <v>12.53387096774193</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>1</v>
+      </c>
+      <c r="B494" t="n">
+        <v>10.36129032258064</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>2</v>
+      </c>
+      <c r="B495" t="n">
+        <v>11.94827586206896</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>3</v>
+      </c>
+      <c r="B496" t="n">
+        <v>18.44193548387097</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>4</v>
+      </c>
+      <c r="B497" t="n">
+        <v>21.40999999999999</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>5</v>
+      </c>
+      <c r="B498" t="n">
+        <v>23.85806451612904</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>6</v>
+      </c>
+      <c r="B499" t="n">
+        <v>24.57333333333333</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>7</v>
+      </c>
+      <c r="B500" t="n">
+        <v>22.73225806451613</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>8</v>
+      </c>
+      <c r="B501" t="n">
+        <v>23.95161290322581</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>9</v>
+      </c>
+      <c r="B502" t="n">
+        <v>22.685</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>10</v>
+      </c>
+      <c r="B503" t="n">
+        <v>17.78064516129032</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>11</v>
+      </c>
+      <c r="B504" t="n">
+        <v>14.76666666666666</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>12</v>
+      </c>
+      <c r="B505" t="n">
+        <v>12.40806451612903</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1</v>
+      </c>
+      <c r="B506" t="n">
+        <v>11.15322580645161</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>2</v>
+      </c>
+      <c r="B507" t="n">
+        <v>15.12678571428572</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3</v>
+      </c>
+      <c r="B508" t="n">
+        <v>18.68870967741935</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>4</v>
+      </c>
+      <c r="B509" t="n">
+        <v>21.39833333333333</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>5</v>
+      </c>
+      <c r="B510" t="n">
+        <v>23.61290322580646</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>6</v>
+      </c>
+      <c r="B511" t="n">
+        <v>24.68666666666667</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>7</v>
+      </c>
+      <c r="B512" t="n">
+        <v>24.44516129032258</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>8</v>
+      </c>
+      <c r="B513" t="n">
+        <v>23.39354838709678</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>9</v>
+      </c>
+      <c r="B514" t="n">
+        <v>21.97333333333333</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>10</v>
+      </c>
+      <c r="B515" t="n">
+        <v>17.96774193548387</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>11</v>
+      </c>
+      <c r="B516" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>12</v>
+      </c>
+      <c r="B517" t="n">
+        <v>13.64838709677419</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1</v>
+      </c>
+      <c r="B518" t="n">
+        <v>16.03548387096774</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>2</v>
+      </c>
+      <c r="B519" t="n">
+        <v>16.79285714285714</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>3</v>
+      </c>
+      <c r="B520" t="n">
+        <v>17.74354838709677</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>4</v>
+      </c>
+      <c r="B521" t="n">
+        <v>23.595</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>5</v>
+      </c>
+      <c r="B522" t="n">
+        <v>23.83064516129032</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>6</v>
+      </c>
+      <c r="B523" t="n">
+        <v>23.11666666666667</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>7</v>
+      </c>
+      <c r="B524" t="n">
+        <v>24.06451612903226</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>8</v>
+      </c>
+      <c r="B525" t="n">
+        <v>23.59516129032259</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>9</v>
+      </c>
+      <c r="B526" t="n">
+        <v>22.50333333333334</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>10</v>
+      </c>
+      <c r="B527" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>11</v>
+      </c>
+      <c r="B528" t="n">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>12</v>
+      </c>
+      <c r="B529" t="n">
+        <v>13.90806451612904</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1</v>
+      </c>
+      <c r="B530" t="n">
+        <v>14.37903225806451</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2</v>
+      </c>
+      <c r="B531" t="n">
+        <v>14.20714285714286</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>3</v>
+      </c>
+      <c r="B532" t="n">
+        <v>19.79032258064516</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>4</v>
+      </c>
+      <c r="B533" t="n">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>5</v>
+      </c>
+      <c r="B534" t="n">
+        <v>23.96612903225806</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>6</v>
+      </c>
+      <c r="B535" t="n">
+        <v>24.52833333333333</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>7</v>
+      </c>
+      <c r="B536" t="n">
+        <v>23.9258064516129</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>8</v>
+      </c>
+      <c r="B537" t="n">
+        <v>23.62096774193549</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>9</v>
+      </c>
+      <c r="B538" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>10</v>
+      </c>
+      <c r="B539" t="n">
+        <v>21.03709677419355</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>11</v>
+      </c>
+      <c r="B540" t="n">
+        <v>15.76666666666667</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>12</v>
+      </c>
+      <c r="B541" t="n">
+        <v>13.70967741935484</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1</v>
+      </c>
+      <c r="B542" t="n">
+        <v>14.41451612903226</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>2</v>
+      </c>
+      <c r="B543" t="n">
+        <v>14.83103448275862</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3</v>
+      </c>
+      <c r="B544" t="n">
+        <v>19.92096774193548</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>4</v>
+      </c>
+      <c r="B545" t="n">
+        <v>22.025</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>5</v>
+      </c>
+      <c r="B546" t="n">
+        <v>23.82741935483872</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>6</v>
+      </c>
+      <c r="B547" t="n">
+        <v>23.63666666666667</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>7</v>
+      </c>
+      <c r="B548" t="n">
+        <v>23.49516129032259</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>8</v>
+      </c>
+      <c r="B549" t="n">
+        <v>23.4983870967742</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>9</v>
+      </c>
+      <c r="B550" t="n">
+        <v>22.72833333333333</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>10</v>
+      </c>
+      <c r="B551" t="n">
+        <v>20.41290322580645</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>11</v>
+      </c>
+      <c r="B552" t="n">
+        <v>17.39666666666667</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>12</v>
+      </c>
+      <c r="B553" t="n">
+        <v>13.73225806451613</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1</v>
+      </c>
+      <c r="B554" t="n">
+        <v>13.67580645161291</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>2</v>
+      </c>
+      <c r="B555" t="n">
+        <v>15.06964285714286</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>3</v>
+      </c>
+      <c r="B556" t="n">
+        <v>19.23225806451613</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>4</v>
+      </c>
+      <c r="B557" t="n">
+        <v>19.87833333333333</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>5</v>
+      </c>
+      <c r="B558" t="n">
+        <v>24.49193548387096</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>6</v>
+      </c>
+      <c r="B559" t="n">
+        <v>24.28166666666667</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>7</v>
+      </c>
+      <c r="B560" t="n">
+        <v>23.16612903225807</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>8</v>
+      </c>
+      <c r="B561" t="n">
+        <v>24.07258064516129</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>9</v>
+      </c>
+      <c r="B562" t="n">
+        <v>20.58999999999999</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>10</v>
+      </c>
+      <c r="B563" t="n">
+        <v>20.48709677419355</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>11</v>
+      </c>
+      <c r="B564" t="n">
+        <v>17.44333333333333</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>12</v>
+      </c>
+      <c r="B565" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1</v>
+      </c>
+      <c r="B566" t="n">
+        <v>15.56451612903226</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>2</v>
+      </c>
+      <c r="B567" t="n">
+        <v>17.40178571428571</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>3</v>
+      </c>
+      <c r="B568" t="n">
+        <v>20.71129032258064</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>4</v>
+      </c>
+      <c r="B569" t="n">
+        <v>22.34166666666666</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>5</v>
+      </c>
+      <c r="B570" t="n">
+        <v>25.26612903225807</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>6</v>
+      </c>
+      <c r="B571" t="n">
+        <v>24.62333333333333</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>7</v>
+      </c>
+      <c r="B572" t="n">
+        <v>23.89193548387096</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>8</v>
+      </c>
+      <c r="B573" t="n">
+        <v>24.07741935483871</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>9</v>
+      </c>
+      <c r="B574" t="n">
+        <v>23.27666666666666</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>10</v>
+      </c>
+      <c r="B575" t="n">
+        <v>21.21612903225807</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>11</v>
+      </c>
+      <c r="B576" t="n">
+        <v>18.15166666666667</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>12</v>
+      </c>
+      <c r="B577" t="n">
+        <v>15.18225806451613</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>1</v>
+      </c>
+      <c r="B578" t="n">
+        <v>14.65161290322581</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>2</v>
+      </c>
+      <c r="B579" t="n">
+        <v>19.46785714285715</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>3</v>
+      </c>
+      <c r="B580" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>4</v>
+      </c>
+      <c r="B581" t="n">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>5</v>
+      </c>
+      <c r="B582" t="n">
+        <v>22.19354838709677</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>6</v>
+      </c>
+      <c r="B583" t="n">
+        <v>25.41666666666666</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>7</v>
+      </c>
+      <c r="B584" t="n">
+        <v>24.11451612903226</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>8</v>
+      </c>
+      <c r="B585" t="n">
+        <v>23.0725806451613</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>9</v>
+      </c>
+      <c r="B586" t="n">
+        <v>22.96666666666667</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>10</v>
+      </c>
+      <c r="B587" t="n">
+        <v>20.70967741935484</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>11</v>
+      </c>
+      <c r="B588" t="n">
+        <v>16.80333333333333</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>12</v>
+      </c>
+      <c r="B589" t="n">
+        <v>12.65483870967742</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1</v>
+      </c>
+      <c r="B590" t="n">
+        <v>13.9483870967742</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>2</v>
+      </c>
+      <c r="B591" t="n">
+        <v>15.77068965517241</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>3</v>
+      </c>
+      <c r="B592" t="n">
+        <v>18.18709677419354</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>4</v>
+      </c>
+      <c r="B593" t="n">
+        <v>22.61166666666667</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>5</v>
+      </c>
+      <c r="B594" t="n">
+        <v>22.56290322580645</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>6</v>
+      </c>
+      <c r="B595" t="n">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>7</v>
+      </c>
+      <c r="B596" t="n">
+        <v>23.97903225806452</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>8</v>
+      </c>
+      <c r="B597" t="n">
+        <v>24.17903225806452</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>9</v>
+      </c>
+      <c r="B598" t="n">
+        <v>22.575</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>10</v>
+      </c>
+      <c r="B599" t="n">
+        <v>21.01935483870968</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>11</v>
+      </c>
+      <c r="B600" t="n">
+        <v>16.91166666666667</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>12</v>
+      </c>
+      <c r="B601" t="n">
+        <v>14.74354838709677</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>1</v>
+      </c>
+      <c r="B602" t="n">
+        <v>15.33064516129032</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>2</v>
+      </c>
+      <c r="B603" t="n">
+        <v>16.55178571428571</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>3</v>
+      </c>
+      <c r="B604" t="n">
+        <v>19.85806451612903</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>4</v>
+      </c>
+      <c r="B605" t="n">
+        <v>24.61833333333333</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>5</v>
+      </c>
+      <c r="B606" t="n">
+        <v>21.45161290322581</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>6</v>
+      </c>
+      <c r="B607" t="n">
+        <v>23.83166666666667</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>7</v>
+      </c>
+      <c r="B608" t="n">
+        <v>24.33225806451613</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>8</v>
+      </c>
+      <c r="B609" t="n">
+        <v>24.23387096774194</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>9</v>
+      </c>
+      <c r="B610" t="n">
+        <v>23.19666666666667</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>10</v>
+      </c>
+      <c r="B611" t="n">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>11</v>
+      </c>
+      <c r="B612" t="n">
+        <v>15.50666666666666</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>12</v>
+      </c>
+      <c r="B613" t="n">
+        <v>15.19193548387097</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>1</v>
+      </c>
+      <c r="B614" t="n">
+        <v>13.30967741935484</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>2</v>
+      </c>
+      <c r="B615" t="n">
+        <v>16.70535714285714</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>3</v>
+      </c>
+      <c r="B616" t="n">
+        <v>18.87258064516129</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>4</v>
+      </c>
+      <c r="B617" t="n">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>5</v>
+      </c>
+      <c r="B618" t="n">
+        <v>21.42258064516129</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>6</v>
+      </c>
+      <c r="B619" t="n">
+        <v>24.15999999999999</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>7</v>
+      </c>
+      <c r="B620" t="n">
+        <v>22.79677419354839</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>8</v>
+      </c>
+      <c r="B621" t="n">
+        <v>21.51451612903225</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>9</v>
+      </c>
+      <c r="B622" t="n">
+        <v>20.68333333333334</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>10</v>
+      </c>
+      <c r="B623" t="n">
+        <v>19.72903225806451</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>11</v>
+      </c>
+      <c r="B624" t="n">
+        <v>16.01833333333333</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>12</v>
+      </c>
+      <c r="B625" t="n">
+        <v>13.66612903225806</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>1</v>
+      </c>
+      <c r="B626" t="n">
+        <v>12.86774193548387</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>2</v>
+      </c>
+      <c r="B627" t="n">
+        <v>15.39821428571429</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>3</v>
+      </c>
+      <c r="B628" t="n">
+        <v>18.35483870967742</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>4</v>
+      </c>
+      <c r="B629" t="n">
+        <v>23.16666666666667</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>5</v>
+      </c>
+      <c r="B630" t="n">
+        <v>23.50967741935484</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>6</v>
+      </c>
+      <c r="B631" t="n">
+        <v>22.51333333333333</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>7</v>
+      </c>
+      <c r="B632" t="n">
+        <v>23.74999999999999</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>8</v>
+      </c>
+      <c r="B633" t="n">
+        <v>23.62258064516129</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>9</v>
+      </c>
+      <c r="B634" t="n">
+        <v>21.15833333333333</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>10</v>
+      </c>
+      <c r="B635" t="n">
+        <v>19.97096774193548</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>11</v>
+      </c>
+      <c r="B636" t="n">
+        <v>16.605</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>12</v>
+      </c>
+      <c r="B637" t="n">
+        <v>13.78225806451613</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>1</v>
+      </c>
+      <c r="B638" t="n">
+        <v>12.95645161290322</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>2</v>
+      </c>
+      <c r="B639" t="n">
+        <v>14.46724137931034</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>3</v>
+      </c>
+      <c r="B640" t="n">
+        <v>20.03225806451613</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>4</v>
+      </c>
+      <c r="B641" t="n">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>5</v>
+      </c>
+      <c r="B642" t="n">
+        <v>21.97419354838709</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>6</v>
+      </c>
+      <c r="B643" t="n">
+        <v>22.55166666666667</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>7</v>
+      </c>
+      <c r="B644" t="n">
+        <v>22.95322580645162</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>8</v>
+      </c>
+      <c r="B645" t="n">
+        <v>23.53387096774194</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>9</v>
+      </c>
+      <c r="B646" t="n">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>10</v>
+      </c>
+      <c r="B647" t="n">
+        <v>18.44677419354839</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>11</v>
+      </c>
+      <c r="B648" t="n">
+        <v>15.61833333333333</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>12</v>
+      </c>
+      <c r="B649" t="n">
+        <v>12.00967741935484</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>1</v>
+      </c>
+      <c r="B650" t="n">
+        <v>13.40322580645161</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>2</v>
+      </c>
+      <c r="B651" t="n">
+        <v>17.85714285714286</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>3</v>
+      </c>
+      <c r="B652" t="n">
+        <v>16.88709677419355</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>4</v>
+      </c>
+      <c r="B653" t="n">
+        <v>22.20999999999999</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>5</v>
+      </c>
+      <c r="B654" t="n">
+        <v>25.02096774193549</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>6</v>
+      </c>
+      <c r="B655" t="n">
+        <v>24.38833333333333</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>7</v>
+      </c>
+      <c r="B656" t="n">
+        <v>23.43548387096774</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>8</v>
+      </c>
+      <c r="B657" t="n">
+        <v>22.96129032258064</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>9</v>
+      </c>
+      <c r="B658" t="n">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>10</v>
+      </c>
+      <c r="B659" t="n">
+        <v>19.35</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>11</v>
+      </c>
+      <c r="B660" t="n">
+        <v>16.23833333333333</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>12</v>
+      </c>
+      <c r="B661" t="n">
+        <v>13.0983870967742</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1</v>
+      </c>
+      <c r="B662" t="n">
+        <v>14.65645161290323</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>2</v>
+      </c>
+      <c r="B663" t="n">
+        <v>16.84285714285715</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>3</v>
+      </c>
+      <c r="B664" t="n">
+        <v>19.77096774193548</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>4</v>
+      </c>
+      <c r="B665" t="n">
+        <v>22.30666666666666</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>5</v>
+      </c>
+      <c r="B666" t="n">
+        <v>21.61129032258064</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>6</v>
+      </c>
+      <c r="B667" t="n">
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>7</v>
+      </c>
+      <c r="B668" t="n">
+        <v>24.15483870967742</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>8</v>
+      </c>
+      <c r="B669" t="n">
+        <v>23.45967741935484</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>9</v>
+      </c>
+      <c r="B670" t="n">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>10</v>
+      </c>
+      <c r="B671" t="n">
+        <v>19.93064516129033</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>11</v>
+      </c>
+      <c r="B672" t="n">
+        <v>16.995</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>12</v>
+      </c>
+      <c r="B673" t="n">
+        <v>13.10322580645161</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1</v>
+      </c>
+      <c r="B674" t="n">
+        <v>12.78225806451613</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>2</v>
+      </c>
+      <c r="B675" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>3</v>
+      </c>
+      <c r="B676" t="n">
+        <v>20.18548387096774</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>4</v>
+      </c>
+      <c r="B677" t="n">
+        <v>19.52666666666667</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>5</v>
+      </c>
+      <c r="B678" t="n">
+        <v>21.72741935483871</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>6</v>
+      </c>
+      <c r="B679" t="n">
+        <v>24.75833333333334</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>7</v>
+      </c>
+      <c r="B680" t="n">
+        <v>23.06451612903226</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>8</v>
+      </c>
+      <c r="B681" t="n">
+        <v>22.96290322580645</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>9</v>
+      </c>
+      <c r="B682" t="n">
+        <v>20.85833333333333</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>10</v>
+      </c>
+      <c r="B683" t="n">
+        <v>19.07258064516129</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>11</v>
+      </c>
+      <c r="B684" t="n">
+        <v>15.66666666666666</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>12</v>
+      </c>
+      <c r="B685" t="n">
+        <v>14.4758064516129</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1</v>
+      </c>
+      <c r="B686" t="n">
+        <v>14.96451612903226</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>2</v>
+      </c>
+      <c r="B687" t="n">
+        <v>12.56551724137931</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>3</v>
+      </c>
+      <c r="B688" t="n">
+        <v>17.46129032258064</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>4</v>
+      </c>
+      <c r="B689" t="n">
+        <v>22.035</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>5</v>
+      </c>
+      <c r="B690" t="n">
+        <v>22.40483870967742</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>6</v>
+      </c>
+      <c r="B691" t="n">
+        <v>23.04666666666667</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>7</v>
+      </c>
+      <c r="B692" t="n">
+        <v>22.80322580645161</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>8</v>
+      </c>
+      <c r="B693" t="n">
+        <v>22.73225806451613</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>9</v>
+      </c>
+      <c r="B694" t="n">
+        <v>22.21333333333333</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>10</v>
+      </c>
+      <c r="B695" t="n">
+        <v>19.74677419354839</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>11</v>
+      </c>
+      <c r="B696" t="n">
+        <v>15.39333333333333</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>12</v>
+      </c>
+      <c r="B697" t="n">
+        <v>12.98709677419355</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1</v>
+      </c>
+      <c r="B698" t="n">
+        <v>12.24677419354838</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>2</v>
+      </c>
+      <c r="B699" t="n">
+        <v>17.90892857142857</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>3</v>
+      </c>
+      <c r="B700" t="n">
+        <v>19.85161290322581</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>4</v>
+      </c>
+      <c r="B701" t="n">
+        <v>21.94833333333333</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>5</v>
+      </c>
+      <c r="B702" t="n">
+        <v>23.42419354838709</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>6</v>
+      </c>
+      <c r="B703" t="n">
+        <v>24.03</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>7</v>
+      </c>
+      <c r="B704" t="n">
+        <v>24.1516129032258</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>8</v>
+      </c>
+      <c r="B705" t="n">
+        <v>23.57258064516129</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>9</v>
+      </c>
+      <c r="B706" t="n">
+        <v>23.25833333333333</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>10</v>
+      </c>
+      <c r="B707" t="n">
+        <v>22.09838709677419</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>11</v>
+      </c>
+      <c r="B708" t="n">
+        <v>16.04666666666667</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>12</v>
+      </c>
+      <c r="B709" t="n">
+        <v>14.77903225806451</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1</v>
+      </c>
+      <c r="B710" t="n">
+        <v>15.46129032258064</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>2</v>
+      </c>
+      <c r="B711" t="n">
+        <v>17.75178571428572</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>3</v>
+      </c>
+      <c r="B712" t="n">
+        <v>20.41774193548387</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>4</v>
+      </c>
+      <c r="B713" t="n">
+        <v>22.755</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>5</v>
+      </c>
+      <c r="B714" t="n">
+        <v>25.69032258064517</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>6</v>
+      </c>
+      <c r="B715" t="n">
+        <v>24.11666666666667</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>7</v>
+      </c>
+      <c r="B716" t="n">
+        <v>24.44193548387097</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>8</v>
+      </c>
+      <c r="B717" t="n">
+        <v>24.12741935483871</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>9</v>
+      </c>
+      <c r="B718" t="n">
+        <v>23.58166666666667</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>10</v>
+      </c>
+      <c r="B719" t="n">
+        <v>18.83387096774193</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>11</v>
+      </c>
+      <c r="B720" t="n">
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>12</v>
+      </c>
+      <c r="B721" t="n">
+        <v>14.44032258064516</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1</v>
+      </c>
+      <c r="B722" t="n">
+        <v>12.26612903225806</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>2</v>
+      </c>
+      <c r="B723" t="n">
+        <v>16.63392857142857</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>3</v>
+      </c>
+      <c r="B724" t="n">
+        <v>16.22931034482759</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>4</v>
+      </c>
+      <c r="B725" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>5</v>
+      </c>
+      <c r="B726" t="n">
+        <v>23.11129032258065</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>6</v>
+      </c>
+      <c r="B727" t="n">
+        <v>24.89482758620689</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>7</v>
+      </c>
+      <c r="B728" t="n">
+        <v>24.07258064516129</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>8</v>
+      </c>
+      <c r="B729" t="n">
+        <v>23.50322580645162</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>9</v>
+      </c>
+      <c r="B730" t="n">
+        <v>22.36000000000001</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>10</v>
+      </c>
+      <c r="B731" t="n">
+        <v>18.89516129032259</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>11</v>
+      </c>
+      <c r="B732" t="n">
+        <v>15.885</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>12</v>
+      </c>
+      <c r="B733" t="n">
+        <v>12.71612903225806</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1</v>
+      </c>
+      <c r="B734" t="n">
+        <v>14.49838709677419</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>2</v>
+      </c>
+      <c r="B735" t="n">
+        <v>18.12586206896552</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>3</v>
+      </c>
+      <c r="B736" t="n">
+        <v>19.67741935483871</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>4</v>
+      </c>
+      <c r="B737" t="n">
+        <v>22.67333333333334</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>5</v>
+      </c>
+      <c r="B738" t="n">
+        <v>24.74354838709677</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>6</v>
+      </c>
+      <c r="B739" t="n">
+        <v>24.185</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>7</v>
+      </c>
+      <c r="B740" t="n">
+        <v>23.79193548387098</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>8</v>
+      </c>
+      <c r="B741" t="n">
+        <v>23.69677419354839</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>9</v>
+      </c>
+      <c r="B742" t="n">
+        <v>21.59500000000001</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>10</v>
+      </c>
+      <c r="B743" t="n">
+        <v>20.53064516129032</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>11</v>
+      </c>
+      <c r="B744" t="n">
+        <v>18.20333333333333</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>12</v>
+      </c>
+      <c r="B745" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1</v>
+      </c>
+      <c r="B746" t="n">
+        <v>13.70967741935483</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>2</v>
+      </c>
+      <c r="B747" t="n">
+        <v>19.7875</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>3</v>
+      </c>
+      <c r="B748" t="n">
+        <v>20.70967741935484</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>4</v>
+      </c>
+      <c r="B749" t="n">
+        <v>22.57333333333333</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>5</v>
+      </c>
+      <c r="B750" t="n">
+        <v>23.97419354838709</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>6</v>
+      </c>
+      <c r="B751" t="n">
+        <v>24.85333333333333</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>7</v>
+      </c>
+      <c r="B752" t="n">
+        <v>24.00172413793104</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>8</v>
+      </c>
+      <c r="B753" t="n">
+        <v>23.49354838709677</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>9</v>
+      </c>
+      <c r="B754" t="n">
+        <v>21.585</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>10</v>
+      </c>
+      <c r="B755" t="n">
+        <v>18.25967741935484</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>11</v>
+      </c>
+      <c r="B756" t="n">
+        <v>17.23166666666667</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>12</v>
+      </c>
+      <c r="B757" t="n">
+        <v>11.86290322580645</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1</v>
+      </c>
+      <c r="B758" t="n">
+        <v>13.48709677419355</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>2</v>
+      </c>
+      <c r="B759" t="n">
+        <v>17.14285714285714</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>3</v>
+      </c>
+      <c r="B760" t="n">
+        <v>20.31451612903225</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>4</v>
+      </c>
+      <c r="B761" t="n">
+        <v>23.81333333333333</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>5</v>
+      </c>
+      <c r="B762" t="n">
+        <v>25.57258064516129</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>6</v>
+      </c>
+      <c r="B763" t="n">
+        <v>25.025</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>7</v>
+      </c>
+      <c r="B764" t="n">
+        <v>23.76290322580645</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>8</v>
+      </c>
+      <c r="B765" t="n">
+        <v>23.0725806451613</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>9</v>
+      </c>
+      <c r="B766" t="n">
+        <v>23.31333333333334</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>10</v>
+      </c>
+      <c r="B767" t="n">
+        <v>19.66774193548387</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>11</v>
+      </c>
+      <c r="B768" t="n">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>12</v>
+      </c>
+      <c r="B769" t="n">
+        <v>13.19516129032258</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1</v>
+      </c>
+      <c r="B770" t="n">
+        <v>13.40322580645161</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>2</v>
+      </c>
+      <c r="B771" t="n">
+        <v>15.7625</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>3</v>
+      </c>
+      <c r="B772" t="n">
+        <v>21.33548387096774</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>4</v>
+      </c>
+      <c r="B773" t="n">
+        <v>21.49333333333334</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>5</v>
+      </c>
+      <c r="B774" t="n">
+        <v>25.62096774193548</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>6</v>
+      </c>
+      <c r="B775" t="n">
+        <v>25.44833333333333</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>7</v>
+      </c>
+      <c r="B776" t="n">
+        <v>23.59354838709677</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>8</v>
+      </c>
+      <c r="B777" t="n">
+        <v>22.56935483870969</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>9</v>
+      </c>
+      <c r="B778" t="n">
+        <v>22.825</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>10</v>
+      </c>
+      <c r="B779" t="n">
+        <v>19.44677419354839</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>11</v>
+      </c>
+      <c r="B780" t="n">
+        <v>17.15666666666667</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>12</v>
+      </c>
+      <c r="B781" t="n">
+        <v>12.80645161290322</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1</v>
+      </c>
+      <c r="B782" t="n">
+        <v>11.84516129032258</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>2</v>
+      </c>
+      <c r="B783" t="n">
+        <v>13.50344827586207</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>3</v>
+      </c>
+      <c r="B784" t="n">
+        <v>19.76774193548387</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>4</v>
+      </c>
+      <c r="B785" t="n">
+        <v>22.53333333333333</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>5</v>
+      </c>
+      <c r="B786" t="n">
+        <v>23.74032258064516</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>6</v>
+      </c>
+      <c r="B787" t="n">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>7</v>
+      </c>
+      <c r="B788" t="n">
+        <v>23.75322580645162</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>8</v>
+      </c>
+      <c r="B789" t="n">
+        <v>24.15967741935483</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>9</v>
+      </c>
+      <c r="B790" t="n">
+        <v>21.98166666666667</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>10</v>
+      </c>
+      <c r="B791" t="n">
+        <v>21.02903225806451</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>11</v>
+      </c>
+      <c r="B792" t="n">
+        <v>16.68333333333333</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>12</v>
+      </c>
+      <c r="B793" t="n">
+        <v>14.32903225806452</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1</v>
+      </c>
+      <c r="B794" t="n">
+        <v>14.8758064516129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
